--- a/测试/WMS单元测试用例.xlsx
+++ b/测试/WMS单元测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="624">
   <si>
     <t>目录名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,6 +2507,10 @@
   </si>
   <si>
     <t>提示查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2844,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J647"/>
+  <dimension ref="A1:K647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="H647" sqref="H647"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2861,10 +2865,10 @@
     <col min="7" max="7" width="35.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="10" max="11" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,8 +2899,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2925,7 +2932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>21</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>3</v>
       </c>
@@ -2949,8 +2956,11 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>25</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>3</v>
       </c>
@@ -3003,8 +3013,11 @@
       <c r="J8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3033,7 +3046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -3047,7 +3060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>24</v>
       </c>
@@ -3061,7 +3074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>4</v>
       </c>
@@ -3071,8 +3084,11 @@
       <c r="J13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3101,7 +3117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>42</v>
       </c>
@@ -3129,7 +3145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>4</v>
       </c>
@@ -3139,8 +3155,11 @@
       <c r="J18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3169,7 +3188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>24</v>
       </c>
@@ -3183,7 +3202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>24</v>
       </c>
@@ -3197,7 +3216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>4</v>
       </c>
@@ -3207,8 +3226,11 @@
       <c r="J23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3237,7 +3259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -3265,7 +3287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>21</v>
       </c>
@@ -3279,7 +3301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>5</v>
       </c>
@@ -3289,8 +3311,11 @@
       <c r="J29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3319,7 +3344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>42</v>
       </c>
@@ -3347,7 +3372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>42</v>
       </c>
@@ -3361,7 +3386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>5</v>
       </c>
@@ -3371,8 +3396,11 @@
       <c r="J35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3401,7 +3429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>21</v>
       </c>
@@ -3415,7 +3443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>21</v>
       </c>
@@ -3429,7 +3457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>21</v>
       </c>
@@ -3443,7 +3471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>5</v>
       </c>
@@ -3453,8 +3481,11 @@
       <c r="J41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -3477,7 +3508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H44">
         <v>2</v>
       </c>
@@ -3485,7 +3516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H45">
         <v>3</v>
       </c>
@@ -3495,8 +3526,11 @@
       <c r="J45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -3519,7 +3553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H48">
         <v>2</v>
       </c>
@@ -3527,7 +3561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H49">
         <v>3</v>
       </c>
@@ -3537,8 +3571,11 @@
       <c r="J49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3567,7 +3604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>21</v>
       </c>
@@ -3581,7 +3618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>21</v>
       </c>
@@ -3595,7 +3632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>21</v>
       </c>
@@ -3609,7 +3646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>5</v>
       </c>
@@ -3619,8 +3656,11 @@
       <c r="J55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3649,7 +3689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +3703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>42</v>
       </c>
@@ -3677,7 +3717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>42</v>
       </c>
@@ -3691,7 +3731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H61">
         <v>5</v>
       </c>
@@ -3701,8 +3741,11 @@
       <c r="J61" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3731,7 +3774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3788,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>104</v>
       </c>
@@ -3759,7 +3802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>105</v>
       </c>
@@ -3773,7 +3816,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H67">
         <v>5</v>
       </c>
@@ -3783,8 +3826,11 @@
       <c r="J67" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -3813,7 +3859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>21</v>
       </c>
@@ -3827,7 +3873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>21</v>
       </c>
@@ -3841,7 +3887,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3901,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H73">
         <v>5</v>
       </c>
@@ -3865,8 +3911,11 @@
       <c r="J73" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -3895,7 +3944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>42</v>
       </c>
@@ -3909,7 +3958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>42</v>
       </c>
@@ -3923,7 +3972,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>21</v>
       </c>
@@ -3937,7 +3986,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H79">
         <v>5</v>
       </c>
@@ -3947,8 +3996,11 @@
       <c r="J79" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -3977,7 +4029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>21</v>
       </c>
@@ -3991,7 +4043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>21</v>
       </c>
@@ -4005,7 +4057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>21</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H85">
         <v>5</v>
       </c>
@@ -4029,8 +4081,11 @@
       <c r="J85" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H88">
         <v>2</v>
       </c>
@@ -4061,7 +4116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H89">
         <v>3</v>
       </c>
@@ -4071,8 +4126,11 @@
       <c r="J89" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -4095,7 +4153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H92">
         <v>2</v>
       </c>
@@ -4103,7 +4161,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H93">
         <v>3</v>
       </c>
@@ -4113,8 +4171,11 @@
       <c r="J93" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -4143,7 +4204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H96">
         <v>2</v>
       </c>
@@ -4153,8 +4214,11 @@
       <c r="J96" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -4183,7 +4247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H99">
         <v>2</v>
       </c>
@@ -4193,8 +4257,11 @@
       <c r="J99" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -4223,7 +4290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>21</v>
       </c>
@@ -4237,7 +4304,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>21</v>
       </c>
@@ -4265,7 +4332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H105">
         <v>5</v>
       </c>
@@ -4275,8 +4342,11 @@
       <c r="J105" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -4305,7 +4375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>166</v>
       </c>
@@ -4319,7 +4389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>166</v>
       </c>
@@ -4333,7 +4403,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4417,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H111">
         <v>5</v>
       </c>
@@ -4357,8 +4427,11 @@
       <c r="J111" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>154</v>
       </c>
@@ -4387,7 +4460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>21</v>
       </c>
@@ -4401,7 +4474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>21</v>
       </c>
@@ -4415,7 +4488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>21</v>
       </c>
@@ -4429,7 +4502,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H117">
         <v>5</v>
       </c>
@@ -4439,8 +4512,11 @@
       <c r="J117" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>173</v>
       </c>
@@ -4469,7 +4545,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
         <v>21</v>
       </c>
@@ -4483,7 +4559,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
         <v>21</v>
       </c>
@@ -4497,7 +4573,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>21</v>
       </c>
@@ -4511,7 +4587,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
         <v>21</v>
       </c>
@@ -4525,7 +4601,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
         <v>21</v>
       </c>
@@ -4539,7 +4615,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H125">
         <v>7</v>
       </c>
@@ -4549,8 +4625,11 @@
       <c r="J125" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -4579,7 +4658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>21</v>
       </c>
@@ -4593,7 +4672,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>21</v>
       </c>
@@ -4607,7 +4686,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
         <v>21</v>
       </c>
@@ -4621,7 +4700,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>193</v>
       </c>
@@ -4635,7 +4714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
         <v>193</v>
       </c>
@@ -4649,7 +4728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H133">
         <v>7</v>
       </c>
@@ -4659,8 +4738,11 @@
       <c r="J133" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -4689,7 +4771,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>21</v>
       </c>
@@ -4703,7 +4785,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>21</v>
       </c>
@@ -4717,7 +4799,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
         <v>21</v>
       </c>
@@ -4731,7 +4813,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
         <v>21</v>
       </c>
@@ -4745,7 +4827,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
         <v>21</v>
       </c>
@@ -4759,7 +4841,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H141">
         <v>7</v>
       </c>
@@ -4769,8 +4851,11 @@
       <c r="J141" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>199</v>
       </c>
@@ -4799,7 +4884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
         <v>201</v>
       </c>
@@ -4813,7 +4898,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>201</v>
       </c>
@@ -4827,7 +4912,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>201</v>
       </c>
@@ -4841,7 +4926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H147">
         <v>5</v>
       </c>
@@ -4851,8 +4936,11 @@
       <c r="J147" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>199</v>
       </c>
@@ -4881,7 +4969,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
         <v>201</v>
       </c>
@@ -4895,7 +4983,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
         <v>193</v>
       </c>
@@ -4909,7 +4997,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
         <v>193</v>
       </c>
@@ -4923,7 +5011,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H153">
         <v>5</v>
       </c>
@@ -4933,8 +5021,11 @@
       <c r="J153" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>199</v>
       </c>
@@ -4963,7 +5054,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
         <v>201</v>
       </c>
@@ -4977,7 +5068,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
         <v>201</v>
       </c>
@@ -4991,7 +5082,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
         <v>201</v>
       </c>
@@ -5005,7 +5096,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H159">
         <v>5</v>
       </c>
@@ -5015,8 +5106,11 @@
       <c r="J159" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -5039,7 +5133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H162">
         <v>2</v>
       </c>
@@ -5047,7 +5141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H163">
         <v>3</v>
       </c>
@@ -5057,8 +5151,11 @@
       <c r="J163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>220</v>
       </c>
@@ -5081,7 +5178,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H166">
         <v>2</v>
       </c>
@@ -5089,7 +5186,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H167">
         <v>3</v>
       </c>
@@ -5099,8 +5196,11 @@
       <c r="J167" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>219</v>
       </c>
@@ -5129,7 +5229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
         <v>21</v>
       </c>
@@ -5143,7 +5243,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
         <v>21</v>
       </c>
@@ -5157,7 +5257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
         <v>21</v>
       </c>
@@ -5171,7 +5271,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +5285,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5299,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H175">
         <v>7</v>
       </c>
@@ -5209,8 +5309,11 @@
       <c r="J175" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>219</v>
       </c>
@@ -5239,7 +5342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
         <v>21</v>
       </c>
@@ -5253,7 +5356,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5370,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
         <v>21</v>
       </c>
@@ -5281,7 +5384,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
         <v>25</v>
       </c>
@@ -5295,7 +5398,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
         <v>25</v>
       </c>
@@ -5309,7 +5412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H183">
         <v>7</v>
       </c>
@@ -5319,8 +5422,11 @@
       <c r="J183" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>219</v>
       </c>
@@ -5349,7 +5455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
         <v>21</v>
       </c>
@@ -5363,7 +5469,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
         <v>21</v>
       </c>
@@ -5377,7 +5483,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
         <v>21</v>
       </c>
@@ -5391,7 +5497,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
         <v>21</v>
       </c>
@@ -5405,7 +5511,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
         <v>21</v>
       </c>
@@ -5419,7 +5525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H191">
         <v>7</v>
       </c>
@@ -5429,8 +5535,11 @@
       <c r="J191" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>236</v>
       </c>
@@ -5459,7 +5568,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
         <v>201</v>
       </c>
@@ -5473,7 +5582,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
         <v>201</v>
       </c>
@@ -5487,7 +5596,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
         <v>201</v>
       </c>
@@ -5501,7 +5610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H197">
         <v>5</v>
       </c>
@@ -5511,8 +5620,11 @@
       <c r="J197" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>236</v>
       </c>
@@ -5541,7 +5653,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
         <v>201</v>
       </c>
@@ -5555,7 +5667,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
         <v>264</v>
       </c>
@@ -5569,7 +5681,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
         <v>264</v>
       </c>
@@ -5583,7 +5695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H203">
         <v>5</v>
       </c>
@@ -5593,8 +5705,11 @@
       <c r="J203" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>236</v>
       </c>
@@ -5623,7 +5738,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
         <v>201</v>
       </c>
@@ -5637,7 +5752,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
         <v>201</v>
       </c>
@@ -5651,7 +5766,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
         <v>201</v>
       </c>
@@ -5665,7 +5780,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H209">
         <v>5</v>
       </c>
@@ -5675,8 +5790,11 @@
       <c r="J209" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>250</v>
       </c>
@@ -5699,7 +5817,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H212">
         <v>2</v>
       </c>
@@ -5709,8 +5827,11 @@
       <c r="J212" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>253</v>
       </c>
@@ -5739,7 +5860,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
         <v>201</v>
       </c>
@@ -5753,7 +5874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
         <v>201</v>
       </c>
@@ -5767,7 +5888,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H217">
         <v>4</v>
       </c>
@@ -5777,8 +5898,11 @@
       <c r="J217" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>253</v>
       </c>
@@ -5807,7 +5931,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
         <v>201</v>
       </c>
@@ -5821,7 +5945,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F221" t="s">
         <v>264</v>
       </c>
@@ -5835,7 +5959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H222">
         <v>4</v>
       </c>
@@ -5845,8 +5969,11 @@
       <c r="J222" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -5875,7 +6002,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F225" t="s">
         <v>201</v>
       </c>
@@ -5889,7 +6016,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
         <v>201</v>
       </c>
@@ -5903,7 +6030,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H227">
         <v>4</v>
       </c>
@@ -5913,8 +6040,11 @@
       <c r="J227" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>253</v>
       </c>
@@ -5943,7 +6073,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
         <v>201</v>
       </c>
@@ -5957,7 +6087,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
         <v>201</v>
       </c>
@@ -5971,7 +6101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
         <v>201</v>
       </c>
@@ -5985,7 +6115,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
         <v>201</v>
       </c>
@@ -5999,7 +6129,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
         <v>201</v>
       </c>
@@ -6013,7 +6143,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
         <v>201</v>
       </c>
@@ -6027,7 +6157,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H236">
         <v>8</v>
       </c>
@@ -6037,8 +6167,11 @@
       <c r="J236" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -6067,7 +6200,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
         <v>201</v>
       </c>
@@ -6081,7 +6214,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F240" t="s">
         <v>201</v>
       </c>
@@ -6095,7 +6228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
         <v>201</v>
       </c>
@@ -6109,7 +6242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F242" t="s">
         <v>201</v>
       </c>
@@ -6123,7 +6256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
         <v>201</v>
       </c>
@@ -6137,7 +6270,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F244" t="s">
         <v>201</v>
       </c>
@@ -6151,7 +6284,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H245">
         <v>8</v>
       </c>
@@ -6161,8 +6294,11 @@
       <c r="J245" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -6191,7 +6327,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
         <v>201</v>
       </c>
@@ -6205,7 +6341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
         <v>201</v>
       </c>
@@ -6219,7 +6355,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
         <v>201</v>
       </c>
@@ -6233,7 +6369,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F251" t="s">
         <v>201</v>
       </c>
@@ -6247,7 +6383,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
         <v>201</v>
       </c>
@@ -6261,7 +6397,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F253" t="s">
         <v>201</v>
       </c>
@@ -6275,7 +6411,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H254">
         <v>8</v>
       </c>
@@ -6285,8 +6421,11 @@
       <c r="J254" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -6315,7 +6454,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
         <v>201</v>
       </c>
@@ -6329,7 +6468,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F258" t="s">
         <v>201</v>
       </c>
@@ -6343,7 +6482,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F259" t="s">
         <v>201</v>
       </c>
@@ -6357,7 +6496,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F260" t="s">
         <v>201</v>
       </c>
@@ -6371,7 +6510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F261" t="s">
         <v>201</v>
       </c>
@@ -6385,7 +6524,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F262" t="s">
         <v>201</v>
       </c>
@@ -6399,7 +6538,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H263">
         <v>8</v>
       </c>
@@ -6409,8 +6548,11 @@
       <c r="J263" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>253</v>
       </c>
@@ -6439,7 +6581,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F266" t="s">
         <v>201</v>
       </c>
@@ -6453,7 +6595,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F267" t="s">
         <v>201</v>
       </c>
@@ -6467,7 +6609,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F268" t="s">
         <v>201</v>
       </c>
@@ -6481,7 +6623,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F269" t="s">
         <v>201</v>
       </c>
@@ -6495,7 +6637,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F270" t="s">
         <v>201</v>
       </c>
@@ -6509,7 +6651,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F271" t="s">
         <v>201</v>
       </c>
@@ -6523,7 +6665,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H272">
         <v>8</v>
       </c>
@@ -6533,8 +6675,11 @@
       <c r="J272" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>253</v>
       </c>
@@ -6563,7 +6708,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F275" t="s">
         <v>201</v>
       </c>
@@ -6577,7 +6722,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F276" t="s">
         <v>201</v>
       </c>
@@ -6591,7 +6736,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F277" t="s">
         <v>201</v>
       </c>
@@ -6605,7 +6750,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F278" t="s">
         <v>201</v>
       </c>
@@ -6619,7 +6764,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
         <v>201</v>
       </c>
@@ -6633,7 +6778,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F280" t="s">
         <v>201</v>
       </c>
@@ -6647,7 +6792,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H281">
         <v>8</v>
       </c>
@@ -6657,8 +6802,11 @@
       <c r="J281" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>300</v>
       </c>
@@ -6687,7 +6835,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F284" t="s">
         <v>105</v>
       </c>
@@ -6701,7 +6849,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
         <v>105</v>
       </c>
@@ -6715,7 +6863,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H286">
         <v>4</v>
       </c>
@@ -6725,8 +6873,11 @@
       <c r="J286" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -6755,7 +6906,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F289" t="s">
         <v>105</v>
       </c>
@@ -6769,7 +6920,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F290" t="s">
         <v>105</v>
       </c>
@@ -6783,7 +6934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H291">
         <v>4</v>
       </c>
@@ -6793,8 +6944,11 @@
       <c r="J291" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -6823,7 +6977,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
         <v>105</v>
       </c>
@@ -6837,7 +6991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F295" t="s">
         <v>105</v>
       </c>
@@ -6851,7 +7005,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H296">
         <v>4</v>
       </c>
@@ -6861,8 +7015,11 @@
       <c r="J296" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -6891,7 +7048,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F299" t="s">
         <v>313</v>
       </c>
@@ -6905,7 +7062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H300">
         <v>3</v>
       </c>
@@ -6915,8 +7072,11 @@
       <c r="J300" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>311</v>
       </c>
@@ -6945,7 +7105,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
         <v>313</v>
       </c>
@@ -6959,7 +7119,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H304">
         <v>3</v>
       </c>
@@ -6969,8 +7129,11 @@
       <c r="J304" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K304" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -6999,7 +7162,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
         <v>313</v>
       </c>
@@ -7013,7 +7176,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H308">
         <v>3</v>
       </c>
@@ -7023,8 +7186,11 @@
       <c r="J308" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K308" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -7047,7 +7213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H311">
         <v>2</v>
       </c>
@@ -7055,7 +7221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H312">
         <v>3</v>
       </c>
@@ -7065,8 +7231,11 @@
       <c r="J312" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K312" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -7089,7 +7258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H315">
         <v>2</v>
       </c>
@@ -7097,7 +7266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H316">
         <v>3</v>
       </c>
@@ -7107,8 +7276,11 @@
       <c r="J316" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K316" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>326</v>
       </c>
@@ -7137,7 +7309,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F319" t="s">
         <v>336</v>
       </c>
@@ -7151,7 +7323,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H320">
         <v>3</v>
       </c>
@@ -7161,8 +7333,11 @@
       <c r="J320" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K320" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>326</v>
       </c>
@@ -7191,7 +7366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F323" t="s">
         <v>339</v>
       </c>
@@ -7205,7 +7380,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H324">
         <v>3</v>
       </c>
@@ -7215,8 +7390,11 @@
       <c r="J324" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K324" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>342</v>
       </c>
@@ -7245,7 +7423,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F327" t="s">
         <v>105</v>
       </c>
@@ -7259,7 +7437,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F328" t="s">
         <v>105</v>
       </c>
@@ -7273,7 +7451,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H329">
         <v>4</v>
       </c>
@@ -7283,8 +7461,11 @@
       <c r="J329" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K329" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -7313,7 +7494,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F332" t="s">
         <v>105</v>
       </c>
@@ -7327,7 +7508,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F333" t="s">
         <v>264</v>
       </c>
@@ -7341,7 +7522,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H334">
         <v>4</v>
       </c>
@@ -7351,8 +7532,11 @@
       <c r="J334" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K334" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -7381,7 +7565,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
         <v>105</v>
       </c>
@@ -7395,7 +7579,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F338" t="s">
         <v>105</v>
       </c>
@@ -7409,7 +7593,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H339">
         <v>4</v>
       </c>
@@ -7419,8 +7603,11 @@
       <c r="J339" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K339" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -7449,7 +7636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F342" t="s">
         <v>105</v>
       </c>
@@ -7463,7 +7650,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F343" t="s">
         <v>105</v>
       </c>
@@ -7477,7 +7664,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F344" t="s">
         <v>105</v>
       </c>
@@ -7491,7 +7678,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
         <v>105</v>
       </c>
@@ -7505,7 +7692,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F346" t="s">
         <v>105</v>
       </c>
@@ -7519,7 +7706,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F347" t="s">
         <v>105</v>
       </c>
@@ -7533,7 +7720,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H348">
         <v>8</v>
       </c>
@@ -7543,8 +7730,11 @@
       <c r="J348" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K348" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>342</v>
       </c>
@@ -7573,7 +7763,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F351" t="s">
         <v>105</v>
       </c>
@@ -7587,7 +7777,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F352" t="s">
         <v>105</v>
       </c>
@@ -7601,7 +7791,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F353" t="s">
         <v>105</v>
       </c>
@@ -7615,7 +7805,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F354" t="s">
         <v>105</v>
       </c>
@@ -7629,7 +7819,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F355" t="s">
         <v>105</v>
       </c>
@@ -7643,7 +7833,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F356" t="s">
         <v>105</v>
       </c>
@@ -7657,7 +7847,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H357">
         <v>8</v>
       </c>
@@ -7667,8 +7857,11 @@
       <c r="J357" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K357" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>342</v>
       </c>
@@ -7697,7 +7890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F360" t="s">
         <v>105</v>
       </c>
@@ -7711,7 +7904,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F361" t="s">
         <v>105</v>
       </c>
@@ -7725,7 +7918,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F362" t="s">
         <v>105</v>
       </c>
@@ -7739,7 +7932,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F363" t="s">
         <v>105</v>
       </c>
@@ -7753,7 +7946,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F364" t="s">
         <v>105</v>
       </c>
@@ -7767,7 +7960,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F365" t="s">
         <v>105</v>
       </c>
@@ -7781,7 +7974,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H366">
         <v>8</v>
       </c>
@@ -7791,8 +7984,11 @@
       <c r="J366" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K366" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>342</v>
       </c>
@@ -7821,7 +8017,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F369" t="s">
         <v>105</v>
       </c>
@@ -7835,7 +8031,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F370" t="s">
         <v>105</v>
       </c>
@@ -7849,7 +8045,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F371" t="s">
         <v>105</v>
       </c>
@@ -7863,7 +8059,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F372" t="s">
         <v>105</v>
       </c>
@@ -7877,7 +8073,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F373" t="s">
         <v>105</v>
       </c>
@@ -7891,7 +8087,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F374" t="s">
         <v>105</v>
       </c>
@@ -7905,7 +8101,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H375">
         <v>8</v>
       </c>
@@ -7915,8 +8111,11 @@
       <c r="J375" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K375" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>342</v>
       </c>
@@ -7945,7 +8144,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F378" t="s">
         <v>105</v>
       </c>
@@ -7959,7 +8158,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F379" t="s">
         <v>105</v>
       </c>
@@ -7973,7 +8172,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F380" t="s">
         <v>105</v>
       </c>
@@ -7987,7 +8186,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F381" t="s">
         <v>105</v>
       </c>
@@ -8001,7 +8200,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F382" t="s">
         <v>105</v>
       </c>
@@ -8015,7 +8214,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F383" t="s">
         <v>105</v>
       </c>
@@ -8029,7 +8228,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H384">
         <v>8</v>
       </c>
@@ -8039,8 +8238,11 @@
       <c r="J384" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K384" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>342</v>
       </c>
@@ -8069,7 +8271,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F387" t="s">
         <v>105</v>
       </c>
@@ -8083,7 +8285,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F388" t="s">
         <v>105</v>
       </c>
@@ -8097,7 +8299,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F389" t="s">
         <v>105</v>
       </c>
@@ -8111,7 +8313,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F390" t="s">
         <v>105</v>
       </c>
@@ -8125,7 +8327,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F391" t="s">
         <v>105</v>
       </c>
@@ -8139,7 +8341,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F392" t="s">
         <v>105</v>
       </c>
@@ -8153,7 +8355,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H393">
         <v>8</v>
       </c>
@@ -8163,8 +8365,11 @@
       <c r="J393" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K393" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>342</v>
       </c>
@@ -8193,7 +8398,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F396" t="s">
         <v>105</v>
       </c>
@@ -8207,7 +8412,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F397" t="s">
         <v>105</v>
       </c>
@@ -8221,7 +8426,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H398">
         <v>4</v>
       </c>
@@ -8231,8 +8436,11 @@
       <c r="J398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K398" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>342</v>
       </c>
@@ -8261,7 +8469,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F401" t="s">
         <v>105</v>
       </c>
@@ -8275,7 +8483,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F402" t="s">
         <v>105</v>
       </c>
@@ -8289,7 +8497,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H403">
         <v>4</v>
       </c>
@@ -8299,8 +8507,11 @@
       <c r="J403" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K403" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>342</v>
       </c>
@@ -8329,7 +8540,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F406" t="s">
         <v>105</v>
       </c>
@@ -8343,7 +8554,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F407" t="s">
         <v>105</v>
       </c>
@@ -8357,7 +8568,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H408">
         <v>4</v>
       </c>
@@ -8367,8 +8578,11 @@
       <c r="J408" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K408" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>342</v>
       </c>
@@ -8397,7 +8611,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F411" t="s">
         <v>313</v>
       </c>
@@ -8411,7 +8625,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H412">
         <v>3</v>
       </c>
@@ -8421,8 +8635,11 @@
       <c r="J412" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K412" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>342</v>
       </c>
@@ -8451,7 +8668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F415" t="s">
         <v>313</v>
       </c>
@@ -8465,7 +8682,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H416">
         <v>3</v>
       </c>
@@ -8475,8 +8692,11 @@
       <c r="J416" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K416" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>342</v>
       </c>
@@ -8505,7 +8725,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F419" t="s">
         <v>313</v>
       </c>
@@ -8519,7 +8739,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H420">
         <v>3</v>
       </c>
@@ -8529,8 +8749,11 @@
       <c r="J420" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K420" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>402</v>
       </c>
@@ -8559,7 +8782,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F423" t="s">
         <v>313</v>
       </c>
@@ -8573,7 +8796,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F424" t="s">
         <v>313</v>
       </c>
@@ -8587,7 +8810,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H425">
         <v>4</v>
       </c>
@@ -8597,8 +8820,11 @@
       <c r="J425" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K425" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>402</v>
       </c>
@@ -8627,7 +8853,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F428" t="s">
         <v>264</v>
       </c>
@@ -8641,7 +8867,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F429" t="s">
         <v>313</v>
       </c>
@@ -8655,7 +8881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H430">
         <v>4</v>
       </c>
@@ -8665,8 +8891,11 @@
       <c r="J430" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K430" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>402</v>
       </c>
@@ -8695,7 +8924,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F433" t="s">
         <v>313</v>
       </c>
@@ -8709,7 +8938,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F434" t="s">
         <v>313</v>
       </c>
@@ -8723,7 +8952,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H435">
         <v>4</v>
       </c>
@@ -8733,8 +8962,11 @@
       <c r="J435" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K435" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>422</v>
       </c>
@@ -8757,7 +8989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H438">
         <v>2</v>
       </c>
@@ -8765,7 +8997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H439">
         <v>3</v>
       </c>
@@ -8775,8 +9007,11 @@
       <c r="J439" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K439" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>422</v>
       </c>
@@ -8799,7 +9034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H442">
         <v>2</v>
       </c>
@@ -8807,7 +9042,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H443">
         <v>3</v>
       </c>
@@ -8817,8 +9052,11 @@
       <c r="J443" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K443" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>429</v>
       </c>
@@ -8847,7 +9085,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F446" t="s">
         <v>313</v>
       </c>
@@ -8861,7 +9099,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F447" t="s">
         <v>313</v>
       </c>
@@ -8875,7 +9113,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H448">
         <v>4</v>
       </c>
@@ -8885,8 +9123,11 @@
       <c r="J448" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K448" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>429</v>
       </c>
@@ -8915,7 +9156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F451" t="s">
         <v>313</v>
       </c>
@@ -8929,7 +9170,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F452" t="s">
         <v>440</v>
       </c>
@@ -8943,7 +9184,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H453">
         <v>4</v>
       </c>
@@ -8953,8 +9194,11 @@
       <c r="J453" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K453" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>448</v>
       </c>
@@ -8983,7 +9227,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F456" t="s">
         <v>313</v>
       </c>
@@ -8997,7 +9241,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F457" t="s">
         <v>313</v>
       </c>
@@ -9011,7 +9255,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H458">
         <v>4</v>
       </c>
@@ -9021,8 +9265,11 @@
       <c r="J458" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K458" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>443</v>
       </c>
@@ -9051,7 +9298,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F461" t="s">
         <v>264</v>
       </c>
@@ -9065,7 +9312,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F462" t="s">
         <v>313</v>
       </c>
@@ -9079,7 +9326,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H463">
         <v>4</v>
       </c>
@@ -9089,8 +9336,11 @@
       <c r="J463" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K463" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>444</v>
       </c>
@@ -9119,7 +9369,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F466" t="s">
         <v>313</v>
       </c>
@@ -9133,7 +9383,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F467" t="s">
         <v>313</v>
       </c>
@@ -9147,7 +9397,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H468">
         <v>4</v>
       </c>
@@ -9157,8 +9407,11 @@
       <c r="J468" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K468" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>456</v>
       </c>
@@ -9187,7 +9440,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F471" t="s">
         <v>468</v>
       </c>
@@ -9201,7 +9454,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F472" t="s">
         <v>468</v>
       </c>
@@ -9215,7 +9468,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H473">
         <v>4</v>
       </c>
@@ -9225,8 +9478,11 @@
       <c r="J473" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K473" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>456</v>
       </c>
@@ -9255,7 +9511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F476" t="s">
         <v>264</v>
       </c>
@@ -9269,7 +9525,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F477" t="s">
         <v>264</v>
       </c>
@@ -9283,7 +9539,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H478">
         <v>4</v>
       </c>
@@ -9293,8 +9549,11 @@
       <c r="J478" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K478" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>456</v>
       </c>
@@ -9323,7 +9582,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F481" t="s">
         <v>468</v>
       </c>
@@ -9337,7 +9596,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F482" t="s">
         <v>468</v>
       </c>
@@ -9351,7 +9610,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H483">
         <v>4</v>
       </c>
@@ -9361,8 +9620,11 @@
       <c r="J483" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K483" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>482</v>
       </c>
@@ -9385,7 +9647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H486">
         <v>2</v>
       </c>
@@ -9393,7 +9655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H487">
         <v>3</v>
       </c>
@@ -9403,8 +9665,11 @@
       <c r="J487" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K487" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>482</v>
       </c>
@@ -9427,7 +9692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H490">
         <v>2</v>
       </c>
@@ -9435,7 +9700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H491">
         <v>3</v>
       </c>
@@ -9445,8 +9710,11 @@
       <c r="J491" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K491" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>487</v>
       </c>
@@ -9475,7 +9743,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H494">
         <v>2</v>
       </c>
@@ -9485,8 +9753,11 @@
       <c r="J494" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K494" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>487</v>
       </c>
@@ -9515,7 +9786,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H497">
         <v>2</v>
       </c>
@@ -9525,8 +9796,11 @@
       <c r="J497" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K497" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>499</v>
       </c>
@@ -9555,7 +9829,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F500" t="s">
         <v>468</v>
       </c>
@@ -9569,7 +9843,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F501" t="s">
         <v>468</v>
       </c>
@@ -9583,7 +9857,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H502">
         <v>4</v>
       </c>
@@ -9593,8 +9867,11 @@
       <c r="J502" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K502" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>499</v>
       </c>
@@ -9623,7 +9900,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F505" t="s">
         <v>264</v>
       </c>
@@ -9637,7 +9914,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F506" t="s">
         <v>264</v>
       </c>
@@ -9651,7 +9928,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H507">
         <v>4</v>
       </c>
@@ -9661,8 +9938,11 @@
       <c r="J507" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K507" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>499</v>
       </c>
@@ -9691,7 +9971,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F510" t="s">
         <v>468</v>
       </c>
@@ -9705,7 +9985,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F511" t="s">
         <v>468</v>
       </c>
@@ -9719,7 +9999,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H512">
         <v>4</v>
       </c>
@@ -9728,6 +10008,9 @@
       </c>
       <c r="J512" t="s">
         <v>513</v>
+      </c>
+      <c r="K512" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -9937,7 +10220,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F529" t="s">
         <v>543</v>
       </c>
@@ -9951,7 +10234,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H530">
         <v>17</v>
       </c>
@@ -9959,7 +10242,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H531">
         <v>18</v>
       </c>
@@ -9967,7 +10250,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H532">
         <v>19</v>
       </c>
@@ -9975,7 +10258,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H533">
         <v>20</v>
       </c>
@@ -9983,7 +10266,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H534">
         <v>21</v>
       </c>
@@ -9991,7 +10274,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H535">
         <v>22</v>
       </c>
@@ -9999,7 +10282,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H536">
         <v>23</v>
       </c>
@@ -10007,7 +10290,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H537">
         <v>24</v>
       </c>
@@ -10015,7 +10298,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H538">
         <v>25</v>
       </c>
@@ -10023,7 +10306,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H539">
         <v>26</v>
       </c>
@@ -10031,7 +10314,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H540">
         <v>27</v>
       </c>
@@ -10039,7 +10322,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H541">
         <v>28</v>
       </c>
@@ -10047,7 +10330,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H542">
         <v>29</v>
       </c>
@@ -10057,8 +10340,11 @@
       <c r="J542" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K542" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>517</v>
       </c>
@@ -10287,7 +10573,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H561">
         <v>18</v>
       </c>
@@ -10295,7 +10581,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H562">
         <v>19</v>
       </c>
@@ -10303,7 +10589,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H563">
         <v>20</v>
       </c>
@@ -10311,7 +10597,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H564">
         <v>21</v>
       </c>
@@ -10319,7 +10605,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H565">
         <v>22</v>
       </c>
@@ -10327,7 +10613,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H566">
         <v>23</v>
       </c>
@@ -10335,7 +10621,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H567">
         <v>24</v>
       </c>
@@ -10343,7 +10629,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H568">
         <v>25</v>
       </c>
@@ -10351,7 +10637,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H569">
         <v>26</v>
       </c>
@@ -10359,7 +10645,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H570">
         <v>27</v>
       </c>
@@ -10367,7 +10653,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H571">
         <v>28</v>
       </c>
@@ -10375,7 +10661,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H572">
         <v>29</v>
       </c>
@@ -10385,8 +10671,11 @@
       <c r="J572" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K572" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>517</v>
       </c>
@@ -10415,7 +10704,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F575" t="s">
         <v>543</v>
       </c>
@@ -10429,7 +10718,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F576" t="s">
         <v>543</v>
       </c>
@@ -10443,7 +10732,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F577" t="s">
         <v>543</v>
       </c>
@@ -10457,7 +10746,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F578" t="s">
         <v>543</v>
       </c>
@@ -10471,7 +10760,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F579" t="s">
         <v>543</v>
       </c>
@@ -10485,7 +10774,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F580" t="s">
         <v>543</v>
       </c>
@@ -10499,7 +10788,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F581" t="s">
         <v>543</v>
       </c>
@@ -10513,7 +10802,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F582" t="s">
         <v>543</v>
       </c>
@@ -10527,7 +10816,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F583" t="s">
         <v>543</v>
       </c>
@@ -10541,7 +10830,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F584" t="s">
         <v>543</v>
       </c>
@@ -10555,7 +10844,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F585" t="s">
         <v>543</v>
       </c>
@@ -10569,7 +10858,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H586">
         <v>13</v>
       </c>
@@ -10577,7 +10866,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H587">
         <v>14</v>
       </c>
@@ -10587,8 +10876,11 @@
       <c r="J587" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K587" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>567</v>
       </c>
@@ -10611,7 +10903,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H590">
         <v>2</v>
       </c>
@@ -10619,7 +10911,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H591">
         <v>3</v>
       </c>
@@ -10627,7 +10919,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F592" t="s">
         <v>579</v>
       </c>
@@ -10640,8 +10932,11 @@
       <c r="J592" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K592" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F593" t="s">
         <v>580</v>
       </c>
@@ -10652,7 +10947,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F594" t="s">
         <v>580</v>
       </c>
@@ -10663,7 +10958,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F595" t="s">
         <v>580</v>
       </c>
@@ -10674,7 +10969,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F596" t="s">
         <v>580</v>
       </c>
@@ -10685,7 +10980,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H597">
         <v>9</v>
       </c>
@@ -10693,7 +10988,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H598">
         <v>10</v>
       </c>
@@ -10703,8 +10998,11 @@
       <c r="J598" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K598" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>567</v>
       </c>
@@ -10727,7 +11025,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H601">
         <v>2</v>
       </c>
@@ -10735,7 +11033,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H602">
         <v>3</v>
       </c>
@@ -10743,7 +11041,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F603" t="s">
         <v>584</v>
       </c>
@@ -10756,8 +11054,11 @@
       <c r="J603" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K603" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F604" t="s">
         <v>584</v>
       </c>
@@ -10768,7 +11069,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F605" t="s">
         <v>584</v>
       </c>
@@ -10779,7 +11080,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F606" t="s">
         <v>584</v>
       </c>
@@ -10790,7 +11091,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F607" t="s">
         <v>584</v>
       </c>
@@ -10801,7 +11102,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H608">
         <v>9</v>
       </c>
@@ -10809,7 +11110,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H609">
         <v>10</v>
       </c>
@@ -10819,8 +11120,11 @@
       <c r="J609" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K609" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>567</v>
       </c>
@@ -10843,7 +11147,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H612">
         <v>2</v>
       </c>
@@ -10851,7 +11155,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H613">
         <v>3</v>
       </c>
@@ -10859,7 +11163,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F614" t="s">
         <v>579</v>
       </c>
@@ -10872,8 +11176,11 @@
       <c r="J614" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K614" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F615" t="s">
         <v>580</v>
       </c>
@@ -10884,7 +11191,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F616" t="s">
         <v>580</v>
       </c>
@@ -10895,7 +11202,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F617" t="s">
         <v>580</v>
       </c>
@@ -10906,7 +11213,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F618" t="s">
         <v>580</v>
       </c>
@@ -10917,7 +11224,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H619">
         <v>9</v>
       </c>
@@ -10925,7 +11232,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H620">
         <v>10</v>
       </c>
@@ -10935,8 +11242,11 @@
       <c r="J620" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K620" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>590</v>
       </c>
@@ -10965,7 +11275,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F623" t="s">
         <v>580</v>
       </c>
@@ -10979,7 +11289,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F624" t="s">
         <v>598</v>
       </c>
@@ -10993,7 +11303,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H625">
         <v>4</v>
       </c>
@@ -11003,8 +11313,11 @@
       <c r="J625" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K625" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>590</v>
       </c>
@@ -11033,7 +11346,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F628" t="s">
         <v>580</v>
       </c>
@@ -11047,7 +11360,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F629" t="s">
         <v>598</v>
       </c>
@@ -11061,7 +11374,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H630">
         <v>4</v>
       </c>
@@ -11071,8 +11384,11 @@
       <c r="J630" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K630" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>590</v>
       </c>
@@ -11101,7 +11417,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F633" t="s">
         <v>580</v>
       </c>
@@ -11115,7 +11431,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F634" t="s">
         <v>598</v>
       </c>
@@ -11129,7 +11445,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H635">
         <v>4</v>
       </c>
@@ -11139,8 +11455,11 @@
       <c r="J635" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K635" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>590</v>
       </c>
@@ -11169,7 +11488,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F638" t="s">
         <v>580</v>
       </c>
@@ -11183,7 +11502,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F639" t="s">
         <v>598</v>
       </c>
@@ -11197,7 +11516,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H640">
         <v>4</v>
       </c>
@@ -11207,8 +11526,11 @@
       <c r="J640" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K640" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>590</v>
       </c>
@@ -11237,7 +11559,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F643" t="s">
         <v>580</v>
       </c>
@@ -11251,7 +11573,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F644" t="s">
         <v>598</v>
       </c>
@@ -11265,7 +11587,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H645">
         <v>4</v>
       </c>
@@ -11275,8 +11597,11 @@
       <c r="J645" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K645" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>618</v>
       </c>
@@ -11300,6 +11625,9 @@
       </c>
       <c r="J647" t="s">
         <v>622</v>
+      </c>
+      <c r="K647" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
